--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45154</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45273</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45219</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>45800</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>46042.55883101852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45701</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44904</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44694</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44859.95800925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>45824.47902777778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>45757.42755787037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45873</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>46043</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45283</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>45238</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44431</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44495</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44368.93952546296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>45537</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>45158</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44991</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45575</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45820.53430555556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45920.55261574074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45932.36537037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45938.61984953703</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45713.58675925926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>45265</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>46032.43961805556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>45999.38724537037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45999.50113425926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>45999.38415509259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45283</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45651.46909722222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>45573</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>44721</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44463</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44430.85060185185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44369</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44342</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44510.4482175926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44818</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44859.95741898148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44462.42559027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44851.68325231481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44371</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44867.94863425926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44867.94878472222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44651</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44866</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44859.95730324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44430.8487962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44744.94275462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44859.95736111111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44859.95748842593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>44833.94997685185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>44354</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44565.96545138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>44265</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>44651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>44487</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44657</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>44687</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>44759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44859.95777777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44819</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>44859.95784722222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44854.65578703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44832.9546875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>44830.95403935185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44868.95143518518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>44473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44469.5366087963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44620</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44861.95695601852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44655</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44859.95717592593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45736.46914351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45447.65377314815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44964.87626157407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44922.43946759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45096.93837962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>45182</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>45062</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45167.95972222222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44968</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44756.94358796296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>45664</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45775.54994212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45141</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45141</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>45275</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45204</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45590.38300925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45665.63706018519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45204</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44991</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45158.97362268518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44921.69261574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44964.87805555556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45021.62100694444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45443</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45622.69039351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44735</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>45757</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>45645.58386574074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>45469</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45638.59567129629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45583.3296875</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>45343</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44763</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44896.97822916666</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>45699.44813657407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>45799.6438425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44816</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>45799.66578703704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44981</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45232</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>45505.95335648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>45800.39288194444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>45264</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45887.56605324074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>45887.57328703703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45799.80739583333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45800.43075231482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45343</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45587</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45491</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45238.92649305556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45180.95841435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45810.35407407407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45607.34743055556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44977.98305555555</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>45888.32443287037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>45688.43670138889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44258</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>45810.35230324074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>45890.61537037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>45890.49130787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         <v>45678.32653935185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>45890.80981481481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>45891.6150462963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>45894.42775462963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>45796.48409722222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>45896.57358796296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45901.61489583334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>45900.49313657408</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>45835.83712962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>45900.49813657408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45187</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45898.48043981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44753.94399305555</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>45818.61790509259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>45903.53185185185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>45702.48326388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45902.66180555556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45820.53545138889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45245.56866898148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>45673.51790509259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45903</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44806</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>45727.4807175926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45637.57925925926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>45825.36783564815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44949.61246527778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45825.37140046297</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45908</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45419.47402777777</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>45825.37471064815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>45247</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>45183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45589</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45907.58118055556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45910.47071759259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45911.35045138889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45825.37862268519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>45911.60041666667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>44515</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>44905</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>45912</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45443</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45825.85033564815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45912</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45917.51179398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45917.50638888889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45678.321875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45660.90559027778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45919.5108912037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45917.81572916666</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>45917.82435185185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>45831.6749537037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>44916</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44515</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45917.83175925926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45923.36495370371</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45923.36356481481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45922.32254629629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45608.52366898148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45922.59987268518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45923.36631944445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45832.98082175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45096.93858796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44949</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>45049</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44922.60114583333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>45470.93159722222</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>45929.34462962963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45929.34473379629</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45926.39694444444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45691</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>45929.6050925926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45926.34539351852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>45929.34471064815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>45012.92611111111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>45929.57420138889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>45835.34629629629</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>45930.34041666667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>45835.86921296296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>45835.88451388889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>45764.34581018519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45838.585625</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45835.878125</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45173</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45840.62851851852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45840.63763888889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45932.36518518518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45936.67855324074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>45936.51171296297</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45937.59449074074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45938.61684027778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>44687</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45562.64625</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45840.63201388889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45841.60773148148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45840.63465277778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45126</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45938.51097222222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44547.45057870371</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44908.95995370371</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45938.61686342592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45770.44284722222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45842.63664351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45940.48415509259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44540</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>45141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>45940.48208333334</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45051</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45712.57372685185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45713.59037037037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>45944.61359953704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>45944.61931712963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>45343</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45673.60427083333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45846</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45946.3471875</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45946.3472337963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45946.36549768518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45849.31851851852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45945.86091435186</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45852.40655092592</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45950.85929398148</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45660.9071412037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>45951.63605324074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45832.74711805556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44886.93724537037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45950.65011574074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45950.73994212963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45950.64607638889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45443</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45858.86798611111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45951.595625</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45859.65673611111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45950.74530092593</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45470.93131944445</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45950.74270833333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45953.45195601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44834.64829861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45953.40626157408</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45867.64376157407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45866.44303240741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>45673.5</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>45866.47144675926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>45866.62015046296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>45953.44894675926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>45638.53171296296</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45957.60758101852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45957.7440162037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45343</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45536.85508101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45873.46920138889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45959.66428240741</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45489.94449074074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44531</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>45874.34928240741</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>45126</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>45874.40981481481</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>45265</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>45961.44832175926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45021</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45265.958125</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45961.34436342592</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45961.5503587963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>45877.31856481481</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45961.55366898148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44943</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>45960.69732638889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>45960.69628472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45244.43186342593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>45964.42788194444</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>45962.49011574074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>45965.55269675926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45965.57398148148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45964.36516203704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45965.50305555556</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>45796.49869212963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45775.54582175926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45965.40554398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>45965.57400462963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44938</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>45239.43872685185</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45966.63836805556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>45678.32327546296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45570</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>45638.53199074074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45883.65679398148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45883.54989583333</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45882.65447916667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>45972.6397337963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45972.65100694444</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45883.55422453704</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45882.62724537037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45473.9594212963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45473</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45883.39547453704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44893.94988425926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45974.55259259259</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45884.34648148148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>46018.35533564815</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45618.4383912037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>46018.36070601852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45979.49057870371</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45979.38577546296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45979.42771990741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45525.6207175926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>45021.60850694445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>46018.34943287037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45092</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>46020.33409722222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>46020.75583333334</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45980.66048611111</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>45980.65039351852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45980.64270833333</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45981.72832175926</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45981.74396990741</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45637.64994212963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45980.65704861111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45693.57324074074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45981.72505787037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45981.71798611111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45980.63456018519</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>46019</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45981.75262731482</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>46019</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45982.55265046296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>46019</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45986.38587962963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>46029.43572916667</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>46029.42859953704</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>46028.66927083334</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45607.50081018519</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45607.50537037037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45986.46953703704</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45986.46951388889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>46029.44138888889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45986.46949074074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45988.65670138889</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45988.42387731482</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45158</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>46031</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45433</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>46023</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>45167</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45378</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>45993.44833333333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44859.9572337963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>45988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>45988</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>45988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45618.63597222222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>46022.87686342592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>45993.65728009259</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>46032.39072916667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44336.9184375</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>45988</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>45435</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45988</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44318</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>45988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>45988</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>46037.81715277778</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>45994.31009259259</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>46037.8172337963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>45994.30788194444</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>46037.81732638889</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>46037.8174537037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>45707</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44977</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>45638</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>45538</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44993.43899305556</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>46038.60483796296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>45751.34894675926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>45344</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44788.92680555556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>45999.39217592592</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44881.35148148148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>46038.59554398148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>46041.34425925926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>44473.94143518519</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>45999.5027662037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>45419.47606481481</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>45996.52368055555</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>45754.45789351852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>45503.70638888889</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>46043</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>46043.78642361111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>45265</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>46042.57334490741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>46042.57971064815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>46042.58493055555</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>45743.65723379629</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>46042.58849537037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>46000.42769675926</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>46000.56664351852</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45586.47215277778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>46043.61787037037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>46000.51100694444</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>46002.6754050926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45021.6141087963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>45034</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>45280.94288194444</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>46003.42759259259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>46003.46922453704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>46045.48094907407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>46002.5459375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45457</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>46002.43589120371</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>46002.43023148148</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>46048.35949074074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45737.65015046296</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45327.60730324074</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>46049.43175925926</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>46006.60643518518</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>46006.58076388889</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>46048.35572916667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>45727.49515046296</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>45727.50065972222</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>45615.67903935185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>46006.34446759259</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>46006.48128472222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>46006.49039351852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>45616.65459490741</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>46006.33436342593</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>46048.67756944444</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>46006.34244212963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>46006.36768518519</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>46006.49802083334</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>45022.94265046297</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>46009.60197916667</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>45166</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>46050.60630787037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>46050.6424537037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>46009.66118055556</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>46009.38614583333</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>46009.60849537037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>46009.66359953704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>46050.68443287037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>46009.61435185185</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>46051.46328703704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>46009.65525462963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44859.95755787037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>46009.57525462963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45701.61490740741</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>46009.59363425926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>46009.61186342593</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45147</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>45147</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>45594.43097222222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45644.57631944444</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44609.64921296296</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45147</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>45618.56424768519</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>45147</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>46010.54806712963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>46010.55255787037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>46052.77422453704</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>46010.56211805555</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>46052.62574074074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44244</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>46055.60136574074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>45147</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>46057.61146990741</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>45775</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45775</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>46037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>46057.33616898148</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>46056.3709837963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>46056.51085648148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>46014</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>45349</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44812</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>45453.95523148148</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>46056.38537037037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>46058.44041666666</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>46058.38614583333</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45568</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45568.92467592593</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44908</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45394</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>46050.61736111111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>46050.62748842593</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>46058.38587962963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44789</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45139.94689814815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>45188.94491898148</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45344</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45593.31179398148</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44533</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44812</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>45637.50048611111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>45525.61174768519</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         <v>45075</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34298,7 +34298,7 @@
         <v>45524.58476851852</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>44977.45096064815</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45482.44936342593</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45419.47746527778</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45419.48121527778</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45586.48637731482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44907</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44820</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44480</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>44902.58502314815</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45231.27434027778</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>44909</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>45105.94471064815</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44742</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44392</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>45453.95530092593</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>45517.3959837963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35292,7 +35292,7 @@
         <v>45569.44695601852</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44433</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35406,7 +35406,7 @@
         <v>45574</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35463,7 +35463,7 @@
         <v>44888.65146990741</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35520,7 +35520,7 @@
         <v>45237</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35577,7 +35577,7 @@
         <v>44728</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>45378</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35711,7 +35711,7 @@
         <v>44706.66061342593</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35768,7 +35768,7 @@
         <v>45028</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35825,7 +35825,7 @@
         <v>45141</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35882,7 +35882,7 @@
         <v>44788</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35939,7 +35939,7 @@
         <v>44462</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35996,7 +35996,7 @@
         <v>45525.60537037037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36053,7 +36053,7 @@
         <v>45533.35350694445</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36110,7 +36110,7 @@
         <v>45524.59075231481</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36167,7 +36167,7 @@
         <v>44977</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>45736.46910879629</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36286,7 +36286,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36343,7 +36343,7 @@
         <v>44418</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>45462.92693287037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36514,7 +36514,7 @@
         <v>45462</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36571,7 +36571,7 @@
         <v>45245</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>44722.94122685185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>45348</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>45622.68798611111</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>45096.93851851852</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>44854</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>45558</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>45139.94703703704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37042,7 +37042,7 @@
         <v>45569.36511574074</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         <v>44859</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37156,7 +37156,7 @@
         <v>45241.61490740741</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37213,7 +37213,7 @@
         <v>45147.58692129629</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37270,7 +37270,7 @@
         <v>45552.8096875</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37327,7 +37327,7 @@
         <v>45742</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37384,7 +37384,7 @@
         <v>45575</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>45119</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>45473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>45034</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37612,7 +37612,7 @@
         <v>45566</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37669,7 +37669,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37726,7 +37726,7 @@
         <v>45251.3116087963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37783,7 +37783,7 @@
         <v>45141</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>45775.56321759259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>45394</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>45439</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>45429</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>45462.96096064815</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38130,7 +38130,7 @@
         <v>44816</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38187,7 +38187,7 @@
         <v>45701.69836805556</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>45238</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45588.35972222222</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>44620</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>45764.6515162037</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>45764.67561342593</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38534,7 +38534,7 @@
         <v>45420</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38596,7 +38596,7 @@
         <v>45187.32118055555</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38653,7 +38653,7 @@
         <v>45587.5822337963</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38710,7 +38710,7 @@
         <v>45763.57402777778</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38772,7 +38772,7 @@
         <v>45491.74201388889</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38829,7 +38829,7 @@
         <v>45140.96217592592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38891,7 +38891,7 @@
         <v>45216</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38953,7 +38953,7 @@
         <v>45237.86452546297</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39010,7 +39010,7 @@
         <v>45145.95565972223</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39072,7 +39072,7 @@
         <v>45145</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39134,7 +39134,7 @@
         <v>44547</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39191,7 +39191,7 @@
         <v>44531</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39248,7 +39248,7 @@
         <v>45147.64556712963</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39305,7 +39305,7 @@
         <v>45676</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39362,7 +39362,7 @@
         <v>44258</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>45187</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39476,7 +39476,7 @@
         <v>45187</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39533,7 +39533,7 @@
         <v>45772.27237268518</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39590,7 +39590,7 @@
         <v>45187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>45560.58483796296</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39704,7 +39704,7 @@
         <v>45616.625</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39761,7 +39761,7 @@
         <v>45665</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39818,7 +39818,7 @@
         <v>45645.63362268519</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39875,7 +39875,7 @@
         <v>45638.5696875</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>45030</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39994,7 +39994,7 @@
         <v>45783.58576388889</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         <v>45783.58952546296</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40108,7 +40108,7 @@
         <v>45603.33398148148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40165,7 +40165,7 @@
         <v>45261</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40222,7 +40222,7 @@
         <v>45789.59297453704</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40279,7 +40279,7 @@
         <v>45790.53908564815</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40336,7 +40336,7 @@
         <v>45789.89773148148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>45790.52902777777</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>45790.65723379629</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40507,7 +40507,7 @@
         <v>45790.66664351852</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40564,7 +40564,7 @@
         <v>45790.66141203704</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40621,7 +40621,7 @@
         <v>45036</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40678,7 +40678,7 @@
         <v>45796.49280092592</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>

--- a/Översikt NORDMALING.xlsx
+++ b/Översikt NORDMALING.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44335</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45158</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45154</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>45273</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45239</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45219</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>45800</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>46042.55883101852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45701</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44904</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44694</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44859.95800925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>45824.47902777778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>45757.42755787037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45873</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>46043</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45283</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>45238</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44431</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44495</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44495</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44368.93952546296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>45537</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45574</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>45158</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44991</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45575</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45820.53430555556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45920.55261574074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45932.36537037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45938.61984953703</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45713.58675925926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>45265</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>46032.43961805556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>45999.38724537037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45999.50113425926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>45999.38415509259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45283</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45651.46909722222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>45573</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>44721</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44463</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44430.85060185185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44369</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44342</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44510.4482175926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44802</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44818</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44859.95741898148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44462.42559027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44851.68325231481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44371</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44867.94863425926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44867.94878472222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44651</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44866</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44859.95730324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44430.8487962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44744.94275462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44859.95736111111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44859.95748842593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>44833.94997685185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>44354</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44565.96545138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>44265</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>44651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>44487</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44657</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>44687</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>44759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44859.95777777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44819</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>44859.95784722222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44342</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44854.65578703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44832.9546875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>44830.95403935185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44868.95143518518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>44473</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44469.5366087963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44377</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44620</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44861.95695601852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44655</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44266</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44859.95717592593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45736.46914351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45447.65377314815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44964.87626157407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44922.43946759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45096.93837962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>45182</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>45062</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45167.95972222222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44968</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44756.94358796296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>45664</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45775.54994212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45141</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45141</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>45275</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45204</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45590.38300925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45665.63706018519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45204</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44991</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>45158.97362268518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44921.69261574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44964.87805555556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45021.62100694444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45443</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45622.69039351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44735</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>45757</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>45645.58386574074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>45469</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45638.59567129629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45583.3296875</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>45343</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>44763</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44896.97822916666</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>45699.44813657407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>45799.6438425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44816</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>45799.66578703704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44981</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45232</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>45505.95335648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>45800.39288194444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>45264</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45887.56605324074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>45887.57328703703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45799.80739583333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45800.43075231482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>45343</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45587</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45491</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45238.92649305556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45180.95841435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45810.35407407407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45607.34743055556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44977.98305555555</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>45888.32443287037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>45688.43670138889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44258</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>45810.35230324074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>45890.61537037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>45890.49130787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         <v>45678.32653935185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>45890.80981481481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>45891.6150462963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>45894.42775462963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>45796.48409722222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>45896.57358796296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45901.61489583334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>45900.49313657408</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>45835.83712962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>45900.49813657408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45187</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45898.48043981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44753.94399305555</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>45818.61790509259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>45903.53185185185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>45702.48326388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45902.66180555556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45820.53545138889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45245.56866898148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>45673.51790509259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45903</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44806</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>45727.4807175926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45637.57925925926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>45825.36783564815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44949.61246527778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45825.37140046297</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45908</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45419.47402777777</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>45825.37471064815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>45247</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>45183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45589</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45825</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45907.58118055556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45910.47071759259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45911.35045138889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45825.37862268519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>45911.60041666667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>44515</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>44905</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>45912</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45443</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45825.85033564815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45912</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45917.51179398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45917.50638888889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45678.321875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45660.90559027778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45919.5108912037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45917.81572916666</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>45917.82435185185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>45831.6749537037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>44916</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44515</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45917.83175925926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45923.36495370371</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45923.36356481481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45922.32254629629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45608.52366898148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45922.59987268518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45923.36631944445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45832.98082175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45096.93858796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44949</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>45049</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44922.60114583333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>45470.93159722222</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>45929.34462962963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45929.34473379629</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45926.39694444444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45691</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>45929.6050925926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45926.34539351852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>45929.34471064815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>45012.92611111111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>45929.57420138889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>45835.34629629629</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>45930.34041666667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>45835.86921296296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>45835.88451388889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>45764.34581018519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45838.585625</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45835.878125</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45173</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45840.62851851852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45840.63763888889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45932.36518518518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45936.67855324074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>45936.51171296297</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45937.59449074074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45938.61684027778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>44687</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45562.64625</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45840.63201388889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45841.60773148148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45840.63465277778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45126</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45938.51097222222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44547.45057870371</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44908.95995370371</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45938.61686342592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45770.44284722222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45842.63664351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45940.48415509259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44540</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>45141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>45940.48208333334</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45051</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45712.57372685185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45713.59037037037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>45944.61359953704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>45944.61931712963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>45343</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45673.60427083333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45846</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45946.3471875</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45946.3472337963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45946.36549768518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45849.31851851852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45945.86091435186</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45852.40655092592</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45950.85929398148</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45660.9071412037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>45951.63605324074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45832.74711805556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44886.93724537037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45950.65011574074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45950.73994212963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45950.64607638889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45443</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45858.86798611111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45951.595625</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45859.65673611111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45950.74530092593</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45470.93131944445</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45950.74270833333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45953.45195601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44834.64829861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45953.40626157408</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45867.64376157407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45866.44303240741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>45673.5</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>45866.47144675926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>45866.62015046296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>45953.44894675926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>45638.53171296296</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45957.60758101852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45957.7440162037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45343</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45536.85508101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45873.46920138889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45959.66428240741</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45489.94449074074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44531</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>45874.34928240741</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         <v>45126</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>45874.40981481481</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         <v>45265</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>45961.44832175926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45021</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45265.958125</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45961.34436342592</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45961.5503587963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>45877.31856481481</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45961.55366898148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45102</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>44943</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>45960.69732638889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>45960.69628472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45244.43186342593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>45964.42788194444</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>45962.49011574074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>45965.55269675926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45965.57398148148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45964.36516203704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45965.50305555556</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>45796.49869212963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45775.54582175926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45965.40554398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>45965.57400462963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44938</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>45239.43872685185</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45966.63836805556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>45678.32327546296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45570</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>45638.53199074074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45883.65679398148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45883.54989583333</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>45882.65447916667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>45972.6397337963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45972.65100694444</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45883.55422453704</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45882.62724537037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45473.9594212963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45473</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45883.39547453704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44972</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44893.94988425926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>45974.55259259259</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45884.34648148148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>46018.35533564815</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45618.4383912037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>46018.36070601852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45979.49057870371</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45979.38577546296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45979.42771990741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45525.6207175926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>45021.60850694445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>46018.34943287037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45092</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>46020.33409722222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>46020.75583333334</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45980.66048611111</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>45980.65039351852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45980.64270833333</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45981.72832175926</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45981.74396990741</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45637.64994212963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45980.65704861111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45693.57324074074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45981.72505787037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45981.71798611111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45980.63456018519</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>46019</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45981.75262731482</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>46019</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45982.55265046296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>46019</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45986.38587962963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>46029.43572916667</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>46029.42859953704</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>46028.66927083334</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45607.50081018519</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45607.50537037037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45986.46953703704</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45986.46951388889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>46029.44138888889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45986.46949074074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45988.65670138889</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45988.42387731482</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45158</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>46031</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45433</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>46023</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>45167</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45378</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>45993.44833333333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44859.9572337963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>45988</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>45988</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>45988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45618.63597222222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>46022.87686342592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>45993.65728009259</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>46032.39072916667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44336.9184375</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>45988</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>45435</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45988</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44318</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>45988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26523,7 +26523,7 @@
         <v>45988</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>46037.81715277778</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>45994.31009259259</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>46037.8172337963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>45994.30788194444</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
         <v>46037.81732638889</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>46037.8174537037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>45707</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44977</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>45638</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>45538</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44993.43899305556</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>46038.60483796296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>45751.34894675926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>45344</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44788.92680555556</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>45999.39217592592</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>44881.35148148148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>46038.59554398148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>46041.34425925926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>44473.94143518519</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>45999.5027662037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>45419.47606481481</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>45996.52368055555</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>45754.45789351852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>45503.70638888889</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>46043</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>46043.78642361111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>45265</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>46042.57334490741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>46042.57971064815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>46042.58493055555</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>45743.65723379629</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>46042.58849537037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>46000.42769675926</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>46000.56664351852</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45586.47215277778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>46043.61787037037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>46000.51100694444</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>46002.6754050926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45021.6141087963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>45034</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>45280.94288194444</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>46003.42759259259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>46003.46922453704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>46045.48094907407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>46002.5459375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45457</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>46002.43589120371</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>46002.43023148148</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>46048.35949074074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45737.65015046296</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45327.60730324074</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>46049.43175925926</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>46006.60643518518</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>46006.58076388889</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>46048.35572916667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>45727.49515046296</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>45727.50065972222</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>45615.67903935185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>46006.34446759259</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>46006.48128472222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>46006.49039351852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>45616.65459490741</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>46006.33436342593</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30263,7 +30263,7 @@
         <v>46048.67756944444</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>46006.34244212963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>46006.36768518519</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>46006.49802083334</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>45022.94265046297</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>46009.60197916667</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>45166</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>46050.60630787037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>46050.6424537037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>46009.66118055556</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>46009.38614583333</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>46009.60849537037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>46009.66359953704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>46050.68443287037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>46009.61435185185</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>46051.46328703704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>46009.65525462963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45330</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44859.95755787037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>46009.57525462963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45701.61490740741</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>46009.59363425926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>46009.61186342593</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45147</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>45147</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>45594.43097222222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45644.57631944444</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44609.64921296296</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45147</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>45618.56424768519</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>45147</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>46010.54806712963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>46010.55255787037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>46052.77422453704</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>46010.56211805555</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>46052.62574074074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44244</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>46055.60136574074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>45147</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>46057.61146990741</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>45775</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45775</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>46037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>46057.33616898148</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>46056.3709837963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>46056.51085648148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32910,7 +32910,7 @@
         <v>46014</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>45349</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44812</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>45453.95523148148</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>46056.38537037037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>46058.44041666666</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>46058.38614583333</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45568</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45568.92467592593</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>44908</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45394</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>46050.61736111111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>46050.62748842593</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>46058.38587962963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44789</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>45139.94689814815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>45188.94491898148</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45344</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45593.31179398148</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44533</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44812</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>45637.50048611111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>45525.61174768519</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         <v>45075</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34298,7 +34298,7 @@
         <v>45524.58476851852</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>44977.45096064815</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45482.44936342593</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45419.47746527778</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45419.48121527778</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45586.48637731482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44907</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44820</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>44480</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>44902.58502314815</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45231.27434027778</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>44909</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>45105.94471064815</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44742</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>44392</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>45453.95530092593</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>45517.3959837963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35292,7 +35292,7 @@
         <v>45569.44695601852</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44433</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35406,7 +35406,7 @@
         <v>45574</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35463,7 +35463,7 @@
         <v>44888.65146990741</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35520,7 +35520,7 @@
         <v>45237</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35577,7 +35577,7 @@
         <v>44728</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>45378</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35711,7 +35711,7 @@
         <v>44706.66061342593</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35768,7 +35768,7 @@
         <v>45028</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35825,7 +35825,7 @@
         <v>45141</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35882,7 +35882,7 @@
         <v>44788</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35939,7 +35939,7 @@
         <v>44462</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35996,7 +35996,7 @@
         <v>45525.60537037037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36053,7 +36053,7 @@
         <v>45533.35350694445</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36110,7 +36110,7 @@
         <v>45524.59075231481</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36167,7 +36167,7 @@
         <v>44977</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>45736.46910879629</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36286,7 +36286,7 @@
         <v>45183</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36343,7 +36343,7 @@
         <v>44418</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>45462.92693287037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36514,7 +36514,7 @@
         <v>45462</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36571,7 +36571,7 @@
         <v>45245</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>44722.94122685185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>45348</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>45622.68798611111</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>45096.93851851852</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>44854</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>45558</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>45139.94703703704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37042,7 +37042,7 @@
         <v>45569.36511574074</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         <v>44859</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37156,7 +37156,7 @@
         <v>45241.61490740741</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37213,7 +37213,7 @@
         <v>45147.58692129629</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37270,7 +37270,7 @@
         <v>45552.8096875</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37327,7 +37327,7 @@
         <v>45742</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37384,7 +37384,7 @@
         <v>45575</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>45119</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>45473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>45034</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37612,7 +37612,7 @@
         <v>45566</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37669,7 +37669,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37726,7 +37726,7 @@
         <v>45251.3116087963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37783,7 +37783,7 @@
         <v>45141</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>45775.56321759259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>45394</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>45439</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>45429</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>45462.96096064815</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38130,7 +38130,7 @@
         <v>44816</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38187,7 +38187,7 @@
         <v>45701.69836805556</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>45238</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45588.35972222222</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>44620</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>45764.6515162037</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>45764.67561342593</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38534,7 +38534,7 @@
         <v>45420</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38596,7 +38596,7 @@
         <v>45187.32118055555</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38653,7 +38653,7 @@
         <v>45587.5822337963</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38710,7 +38710,7 @@
         <v>45763.57402777778</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38772,7 +38772,7 @@
         <v>45491.74201388889</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38829,7 +38829,7 @@
         <v>45140.96217592592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38891,7 +38891,7 @@
         <v>45216</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38953,7 +38953,7 @@
         <v>45237.86452546297</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39010,7 +39010,7 @@
         <v>45145.95565972223</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39072,7 +39072,7 @@
         <v>45145</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39134,7 +39134,7 @@
         <v>44547</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39191,7 +39191,7 @@
         <v>44531</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39248,7 +39248,7 @@
         <v>45147.64556712963</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39305,7 +39305,7 @@
         <v>45676</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39362,7 +39362,7 @@
         <v>44258</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>45187</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39476,7 +39476,7 @@
         <v>45187</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39533,7 +39533,7 @@
         <v>45772.27237268518</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39590,7 +39590,7 @@
         <v>45187</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>45560.58483796296</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39704,7 +39704,7 @@
         <v>45616.625</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39761,7 +39761,7 @@
         <v>45665</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39818,7 +39818,7 @@
         <v>45645.63362268519</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39875,7 +39875,7 @@
         <v>45638.5696875</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>45030</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39994,7 +39994,7 @@
         <v>45783.58576388889</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         <v>45783.58952546296</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40108,7 +40108,7 @@
         <v>45603.33398148148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40165,7 +40165,7 @@
         <v>45261</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40222,7 +40222,7 @@
         <v>45789.59297453704</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40279,7 +40279,7 @@
         <v>45790.53908564815</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40336,7 +40336,7 @@
         <v>45789.89773148148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40393,7 +40393,7 @@
         <v>45790.52902777777</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40450,7 +40450,7 @@
         <v>45790.65723379629</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40507,7 +40507,7 @@
         <v>45790.66664351852</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40564,7 +40564,7 @@
         <v>45790.66141203704</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40621,7 +40621,7 @@
         <v>45036</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40678,7 +40678,7 @@
         <v>45796.49280092592</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
